--- a/LCAPI/lc_resource/model_data.xlsx
+++ b/LCAPI/lc_resource/model_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PXQ\Desktop\LC\LCAPI\lc_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0660D015-A903-4E76-9992-76163A1C95BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998CC0B8-350B-4D7C-801C-5C8903D057F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20280" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>关键字</t>
   </si>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>文件后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_tag</t>
+  </si>
+  <si>
+    <t>model_equipment_tag</t>
+  </si>
+  <si>
+    <t>视频时长</t>
+  </si>
+  <si>
+    <t>model_animation_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -513,7 +534,7 @@
     <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -550,8 +571,17 @@
       <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,20 +617,31 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="多个关键词，使用空格隔开_x000a_关键词1 关键词2 关键词3" sqref="A1:A1048576" xr:uid="{DB40BFD2-D341-4AFF-852A-99C598C4072E}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="多个标签使用空格分开" sqref="B1:B1048576" xr:uid="{E0CE42ED-A862-4597-9FB9-3A70EA069DA9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意包含年月日信息的时间值都可以。_x000a_单元格类型务必是文本类型_x000a_例：_x000a_2002年1月2日_x000a_2002.1.2_x000a_2002/12/02_x000a_44569 这种不可以" sqref="C1:C1048576" xr:uid="{8CE4CD0A-371D-4721-84D7-7C28A5455F16}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意文本" sqref="K1:K1048576 I1:I1048576 D1:G1048576" xr:uid="{510536EE-0F7A-4358-91BB-19F90AD526C0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="文件大小，单位为MB，直接填写数字_x000a_务必改为文本格式_x000a_科学计数法无法识别_x000a_例_x000a_1_x000a_5000_x000a_3.2" sqref="H1:H1048576" xr:uid="{A0E9693F-270B-436B-8BD5-339C1A9E2B5A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意字符串，请标明单位_x000a_例：_x000a_1KB，2.5MB，5.9GB，7TB，10PB" sqref="H1:H1048576" xr:uid="{A0E9693F-270B-436B-8BD5-339C1A9E2B5A}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{31B505C6-2FFE-4066-9346-AEF73DC04679}">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="使用多个插件时，使用空格隔开_x000a_例：_x000a_PluginA PlugInB" sqref="L1:L1048576" xr:uid="{2A0C3E75-7491-43D4-8904-3F75D4138B56}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="只接受一种格式，时:分:秒_x000a_单元格格式为文本" sqref="O1:O1048576" xr:uid="{CF808043-16EE-4DE9-A4FB-9C6F45594275}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有多个值时，使用空格分开_x000a_例_x000a_V1 V2 V3" sqref="M1:N1048576" xr:uid="{DAD65073-C191-4824-AE4B-51705A72974A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
